--- a/data/trans_orig/P1804-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1804-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE0317B4-109B-40E4-9314-1C7E38E96E6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE5AB8F4-9D93-47AD-BBC9-DAB525CF9C7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FDFE2073-E4B7-444F-8A1A-3FF23A33C1AB}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{55DB36B5-BA7B-45DD-8EA1-569759B02A77}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="225">
   <si>
     <t>Población según si en los últimos 12 meses han visitado un enfermero/a, matrona en 2015 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -75,28 +75,28 @@
     <t>7,94%</t>
   </si>
   <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
   </si>
   <si>
     <t>10,1%</t>
   </si>
   <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
   </si>
   <si>
     <t>9,01%</t>
   </si>
   <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,28 +105,28 @@
     <t>92,06%</t>
   </si>
   <si>
-    <t>84,94%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
+    <t>84,92%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
   </si>
   <si>
     <t>89,9%</t>
   </si>
   <si>
-    <t>82,47%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
+    <t>83,13%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
   </si>
   <si>
     <t>90,99%</t>
   </si>
   <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
+    <t>86,26%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
   </si>
   <si>
     <t>100%</t>
@@ -138,169 +138,163 @@
     <t>3,79%</t>
   </si>
   <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
   </si>
   <si>
     <t>5,88%</t>
   </si>
   <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
   </si>
   <si>
     <t>4,83%</t>
   </si>
   <si>
-    <t>3,65%</t>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>91,74%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
   </si>
   <si>
     <t>6,09%</t>
   </si>
   <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
   </si>
   <si>
     <t>93,91%</t>
   </si>
   <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
     <t>mas de 50</t>
   </si>
   <si>
     <t>5,28%</t>
   </si>
   <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
   </si>
   <si>
     <t>11,57%</t>
   </si>
   <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
   </si>
   <si>
     <t>8,48%</t>
   </si>
   <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
   </si>
   <si>
     <t>94,72%</t>
   </si>
   <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
   </si>
   <si>
     <t>88,43%</t>
   </si>
   <si>
-    <t>86,06%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
+    <t>85,91%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
   </si>
   <si>
     <t>91,52%</t>
   </si>
   <si>
-    <t>89,85%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -309,61 +303,61 @@
     <t>9,08%</t>
   </si>
   <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
   </si>
   <si>
     <t>12,06%</t>
   </si>
   <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
   </si>
   <si>
     <t>10,65%</t>
   </si>
   <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
   </si>
   <si>
     <t>90,92%</t>
   </si>
   <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
+    <t>89,12%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
   </si>
   <si>
     <t>87,94%</t>
   </si>
   <si>
-    <t>85,75%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
+    <t>85,76%</t>
+  </si>
+  <si>
+    <t>90,03%</t>
   </si>
   <si>
     <t>89,35%</t>
   </si>
   <si>
-    <t>87,67%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
+    <t>87,92%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
   </si>
   <si>
     <t>6,3%</t>
   </si>
   <si>
-    <t>5,44%</t>
+    <t>5,57%</t>
   </si>
   <si>
     <t>7,17%</t>
@@ -372,46 +366,46 @@
     <t>9,93%</t>
   </si>
   <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
     <t>8,83%</t>
   </si>
   <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
     <t>93,7%</t>
   </si>
   <si>
     <t>92,83%</t>
   </si>
   <si>
-    <t>94,56%</t>
+    <t>94,43%</t>
   </si>
   <si>
     <t>90,07%</t>
   </si>
   <si>
-    <t>89,03%</t>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
   </si>
   <si>
     <t>91,17%</t>
   </si>
   <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
+    <t>92,53%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -423,313 +417,301 @@
     <t>4,78%</t>
   </si>
   <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
   </si>
   <si>
     <t>7,78%</t>
   </si>
   <si>
-    <t>4,67%</t>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
   </si>
   <si>
     <t>6,46%</t>
   </si>
   <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
   </si>
   <si>
     <t>95,22%</t>
   </si>
   <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
   </si>
   <si>
     <t>92,22%</t>
   </si>
   <si>
-    <t>95,33%</t>
+    <t>86,31%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
   </si>
   <si>
     <t>93,54%</t>
   </si>
   <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
   </si>
   <si>
     <t>3,34%</t>
   </si>
   <si>
-    <t>1,72%</t>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>91,37%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>89,88%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>87,49%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
   </si>
   <si>
     <t>5,92%</t>
   </si>
   <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
   </si>
   <si>
     <t>94,08%</t>
   </si>
   <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>90,62%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>89,34%</t>
-  </si>
-  <si>
-    <t>87,3%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>89,26%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
   </si>
   <si>
     <t>92,05%</t>
   </si>
   <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
+    <t>91,11%</t>
   </si>
   <si>
     <t>93,01%</t>
   </si>
   <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
   </si>
 </sst>
 </file>
@@ -1141,7 +1123,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59D1F75A-21FD-4B74-B008-3F681D3FDE46}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90CD9DC1-B3A1-4C89-BA0D-E1F937947F4A}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1453,10 +1435,10 @@
         <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1471,13 +1453,13 @@
         <v>537105</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>518</v>
@@ -1486,13 +1468,13 @@
         <v>526602</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>1036</v>
@@ -1501,13 +1483,13 @@
         <v>1063707</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1563,7 +1545,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1575,13 +1557,13 @@
         <v>58057</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>83</v>
@@ -1590,13 +1572,13 @@
         <v>90859</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>139</v>
@@ -1605,13 +1587,13 @@
         <v>148916</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1626,13 +1608,13 @@
         <v>964374</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>894</v>
@@ -1641,13 +1623,13 @@
         <v>952054</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>1789</v>
@@ -1656,13 +1638,13 @@
         <v>1916428</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1718,7 +1700,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1730,13 +1712,13 @@
         <v>40088</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>84</v>
@@ -1745,13 +1727,13 @@
         <v>90834</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>121</v>
@@ -1760,13 +1742,13 @@
         <v>130922</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1781,13 +1763,13 @@
         <v>719464</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>652</v>
@@ -1796,13 +1778,13 @@
         <v>694177</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>1311</v>
@@ -1811,13 +1793,13 @@
         <v>1413641</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1873,7 +1855,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1885,13 +1867,13 @@
         <v>85137</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>106</v>
@@ -1900,13 +1882,13 @@
         <v>125886</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>191</v>
@@ -1915,13 +1897,13 @@
         <v>211023</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1936,13 +1918,13 @@
         <v>852430</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>853</v>
@@ -1951,13 +1933,13 @@
         <v>917893</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>1700</v>
@@ -1966,13 +1948,13 @@
         <v>1770323</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2040,13 +2022,13 @@
         <v>213690</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H19" s="7">
         <v>317</v>
@@ -2055,13 +2037,13 @@
         <v>351909</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M19" s="7">
         <v>524</v>
@@ -2070,13 +2052,13 @@
         <v>565599</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2091,13 +2073,13 @@
         <v>3180660</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H20" s="7">
         <v>3021</v>
@@ -2106,13 +2088,13 @@
         <v>3192633</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M20" s="7">
         <v>6045</v>
@@ -2121,13 +2103,13 @@
         <v>6373293</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2183,7 +2165,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2204,7 +2186,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28D30EAA-2B75-44E7-89F0-9C5199C452B6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D62DEFF2-BF11-4FF8-83DF-42B8B8042563}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2221,7 +2203,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2328,13 +2310,13 @@
         <v>4873</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="H4" s="7">
         <v>17</v>
@@ -2343,13 +2325,13 @@
         <v>10171</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="M4" s="7">
         <v>24</v>
@@ -2358,13 +2340,13 @@
         <v>15044</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2379,13 +2361,13 @@
         <v>97109</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H5" s="7">
         <v>226</v>
@@ -2394,10 +2376,10 @@
         <v>120562</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>28</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>139</v>
@@ -2626,7 +2608,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2656,10 +2638,10 @@
         <v>164</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="M10" s="7">
         <v>189</v>
@@ -2668,13 +2650,13 @@
         <v>167459</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2689,13 +2671,13 @@
         <v>963221</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="H11" s="7">
         <v>1393</v>
@@ -2704,13 +2686,13 @@
         <v>968042</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>174</v>
-      </c>
       <c r="L11" s="7" t="s">
-        <v>175</v>
+        <v>63</v>
       </c>
       <c r="M11" s="7">
         <v>2291</v>
@@ -2719,13 +2701,13 @@
         <v>1931263</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2781,7 +2763,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2793,13 +2775,13 @@
         <v>21227</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="H13" s="7">
         <v>64</v>
@@ -2808,13 +2790,13 @@
         <v>42887</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="M13" s="7">
         <v>91</v>
@@ -2823,13 +2805,13 @@
         <v>64114</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2844,13 +2826,13 @@
         <v>707545</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="H14" s="7">
         <v>979</v>
@@ -2859,13 +2841,13 @@
         <v>827838</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="M14" s="7">
         <v>1628</v>
@@ -2874,13 +2856,13 @@
         <v>1535383</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2936,7 +2918,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2948,13 +2930,13 @@
         <v>79753</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>197</v>
+        <v>37</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="H16" s="7">
         <v>187</v>
@@ -2963,13 +2945,13 @@
         <v>122592</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="M16" s="7">
         <v>280</v>
@@ -2978,13 +2960,13 @@
         <v>202345</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2999,13 +2981,13 @@
         <v>885650</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>206</v>
+        <v>44</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="H17" s="7">
         <v>1374</v>
@@ -3014,13 +2996,13 @@
         <v>1027114</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="M17" s="7">
         <v>2287</v>
@@ -3029,13 +3011,13 @@
         <v>1912764</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3103,13 +3085,13 @@
         <v>200249</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>145</v>
+        <v>209</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="H19" s="7">
         <v>439</v>
@@ -3118,13 +3100,13 @@
         <v>302449</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>218</v>
+        <v>70</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="M19" s="7">
         <v>647</v>
@@ -3133,13 +3115,13 @@
         <v>502698</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3154,13 +3136,13 @@
         <v>3184979</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>153</v>
+        <v>217</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="H20" s="7">
         <v>4919</v>
@@ -3169,13 +3151,13 @@
         <v>3500608</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>227</v>
+        <v>78</v>
       </c>
       <c r="M20" s="7">
         <v>8087</v>
@@ -3184,13 +3166,13 @@
         <v>6685587</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3246,7 +3228,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1804-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1804-Habitat-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE5AB8F4-9D93-47AD-BBC9-DAB525CF9C7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D1666CE-1A33-4668-ADB8-02DB96E4DEEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{55DB36B5-BA7B-45DD-8EA1-569759B02A77}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{31DB114C-A8DA-4322-9999-CC25B424485A}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
     <sheet name="2023" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -37,9 +37,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="225">
-  <si>
-    <t>Población según si en los últimos 12 meses han visitado un enfermero/a, matrona en 2015 (Tasa respuesta: 100,0%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="233">
+  <si>
+    <t>Población según si en los últimos 12 meses han visitado un enfermero/a, matrona en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -66,7 +66,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -75,28 +75,28 @@
     <t>7,94%</t>
   </si>
   <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
   </si>
   <si>
     <t>10,1%</t>
   </si>
   <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
   </si>
   <si>
     <t>9,01%</t>
   </si>
   <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,604 +105,628 @@
     <t>92,06%</t>
   </si>
   <si>
-    <t>84,92%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
+    <t>84,97%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
   </si>
   <si>
     <t>89,9%</t>
   </si>
   <si>
-    <t>83,13%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
+    <t>82,97%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
   </si>
   <si>
     <t>90,99%</t>
   </si>
   <si>
-    <t>86,26%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
+    <t>86,28%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>3,79%</t>
   </si>
   <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
   </si>
   <si>
     <t>5,88%</t>
   </si>
   <si>
-    <t>4,15%</t>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>89,44%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>92,63%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>88,43%</t>
+  </si>
+  <si>
+    <t>85,96%</t>
+  </si>
+  <si>
+    <t>90,71%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>85,7%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>87,92%</t>
+  </si>
+  <si>
+    <t>90,75%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>90,07%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si en los últimos 12 meses han visitado un enfermero/a, matrona en 2023 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>91,37%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
   </si>
   <si>
     <t>8,26%</t>
   </si>
   <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
   </si>
   <si>
     <t>91,74%</t>
   </si>
   <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
+    <t>89,88%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>87,49%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
   </si>
   <si>
     <t>6,98%</t>
   </si>
   <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>91,11%</t>
   </si>
   <si>
     <t>93,02%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>88,43%</t>
-  </si>
-  <si>
-    <t>85,91%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>89,12%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>85,76%</t>
-  </si>
-  <si>
-    <t>90,03%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
-  </si>
-  <si>
-    <t>87,92%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>90,07%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si en los últimos 12 meses han visitado un enfermero/a, matrona en 2023 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>89,34%</t>
-  </si>
-  <si>
-    <t>87,49%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>89,21%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
   </si>
   <si>
     <t>93,01%</t>
@@ -1123,7 +1147,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90CD9DC1-B3A1-4C89-BA0D-E1F937947F4A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57BBD40A-BBC9-4766-9C61-E36CEE242F08}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1435,10 +1459,10 @@
         <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1453,13 +1477,13 @@
         <v>537105</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>518</v>
@@ -1468,13 +1492,13 @@
         <v>526602</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>1036</v>
@@ -1483,13 +1507,13 @@
         <v>1063707</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1545,7 +1569,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1557,13 +1581,13 @@
         <v>58057</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>83</v>
@@ -1572,13 +1596,13 @@
         <v>90859</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>139</v>
@@ -1587,13 +1611,13 @@
         <v>148916</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1608,13 +1632,13 @@
         <v>964374</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>894</v>
@@ -1623,13 +1647,13 @@
         <v>952054</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>1789</v>
@@ -1638,13 +1662,13 @@
         <v>1916428</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1700,7 +1724,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1712,13 +1736,13 @@
         <v>40088</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>84</v>
@@ -1727,13 +1751,13 @@
         <v>90834</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>121</v>
@@ -1742,13 +1766,13 @@
         <v>130922</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1763,13 +1787,13 @@
         <v>719464</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>652</v>
@@ -1778,13 +1802,13 @@
         <v>694177</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>1311</v>
@@ -1793,13 +1817,13 @@
         <v>1413641</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1855,7 +1879,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1867,13 +1891,13 @@
         <v>85137</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>106</v>
@@ -1882,13 +1906,13 @@
         <v>125886</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>191</v>
@@ -1897,13 +1921,13 @@
         <v>211023</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1918,13 +1942,13 @@
         <v>852430</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>853</v>
@@ -1933,13 +1957,13 @@
         <v>917893</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>1700</v>
@@ -1948,13 +1972,13 @@
         <v>1770323</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2022,13 +2046,13 @@
         <v>213690</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H19" s="7">
         <v>317</v>
@@ -2037,13 +2061,13 @@
         <v>351909</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M19" s="7">
         <v>524</v>
@@ -2052,13 +2076,13 @@
         <v>565599</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2073,13 +2097,13 @@
         <v>3180660</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H20" s="7">
         <v>3021</v>
@@ -2088,13 +2112,13 @@
         <v>3192633</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M20" s="7">
         <v>6045</v>
@@ -2103,13 +2127,13 @@
         <v>6373293</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2165,7 +2189,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2186,7 +2210,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D62DEFF2-BF11-4FF8-83DF-42B8B8042563}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBC40DAA-79B2-44CC-9AAC-FD26F6CD966C}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2203,7 +2227,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2310,13 +2334,13 @@
         <v>4873</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H4" s="7">
         <v>17</v>
@@ -2325,13 +2349,13 @@
         <v>10171</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M4" s="7">
         <v>24</v>
@@ -2340,13 +2364,13 @@
         <v>15044</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2361,13 +2385,13 @@
         <v>97109</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H5" s="7">
         <v>226</v>
@@ -2376,13 +2400,13 @@
         <v>120562</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M5" s="7">
         <v>337</v>
@@ -2391,13 +2415,13 @@
         <v>217671</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2465,13 +2489,13 @@
         <v>18370</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H7" s="7">
         <v>48</v>
@@ -2480,13 +2504,13 @@
         <v>35367</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M7" s="7">
         <v>63</v>
@@ -2495,13 +2519,13 @@
         <v>53737</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2516,13 +2540,13 @@
         <v>531453</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H8" s="7">
         <v>947</v>
@@ -2531,13 +2555,13 @@
         <v>557052</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M8" s="7">
         <v>1544</v>
@@ -2546,13 +2570,13 @@
         <v>1088505</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2608,7 +2632,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2620,13 +2644,13 @@
         <v>76027</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H10" s="7">
         <v>123</v>
@@ -2635,13 +2659,13 @@
         <v>91432</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>53</v>
+        <v>167</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="M10" s="7">
         <v>189</v>
@@ -2650,13 +2674,13 @@
         <v>167459</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2671,13 +2695,13 @@
         <v>963221</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="H11" s="7">
         <v>1393</v>
@@ -2686,13 +2710,13 @@
         <v>968042</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>177</v>
       </c>
       <c r="M11" s="7">
         <v>2291</v>
@@ -2701,13 +2725,13 @@
         <v>1931263</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2763,7 +2787,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2775,13 +2799,13 @@
         <v>21227</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="H13" s="7">
         <v>64</v>
@@ -2790,13 +2814,13 @@
         <v>42887</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="M13" s="7">
         <v>91</v>
@@ -2805,13 +2829,13 @@
         <v>64114</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2826,13 +2850,13 @@
         <v>707545</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="H14" s="7">
         <v>979</v>
@@ -2841,13 +2865,13 @@
         <v>827838</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="M14" s="7">
         <v>1628</v>
@@ -2856,13 +2880,13 @@
         <v>1535383</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2918,7 +2942,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2930,13 +2954,13 @@
         <v>79753</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>37</v>
+        <v>197</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="H16" s="7">
         <v>187</v>
@@ -2945,13 +2969,13 @@
         <v>122592</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="M16" s="7">
         <v>280</v>
@@ -2960,13 +2984,13 @@
         <v>202345</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2981,13 +3005,13 @@
         <v>885650</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>44</v>
+        <v>206</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="H17" s="7">
         <v>1374</v>
@@ -2996,13 +3020,13 @@
         <v>1027114</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="M17" s="7">
         <v>2287</v>
@@ -3011,13 +3035,13 @@
         <v>1912764</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3085,13 +3109,13 @@
         <v>200249</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="H19" s="7">
         <v>439</v>
@@ -3100,13 +3124,13 @@
         <v>302449</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>70</v>
+        <v>219</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="M19" s="7">
         <v>647</v>
@@ -3115,13 +3139,13 @@
         <v>502698</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3136,13 +3160,13 @@
         <v>3184979</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="H20" s="7">
         <v>4919</v>
@@ -3151,13 +3175,13 @@
         <v>3500608</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>78</v>
+        <v>229</v>
       </c>
       <c r="M20" s="7">
         <v>8087</v>
@@ -3166,13 +3190,13 @@
         <v>6685587</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3228,7 +3252,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1804-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1804-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC68D30B-81C5-428A-8E99-ACF9E59966C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4F7ABE4-366F-4AF6-8AF4-F22FB854C42C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{38108E6F-75F5-45DA-BEA1-7499A32170FE}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{0072E8F8-358F-4A0F-9BF8-383E35BD4BF0}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="233">
   <si>
     <t>Población según si en los últimos 12 meses han visitado un enfermero/a, matrona en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>991.0</t>
@@ -77,16 +77,13 @@
     <t>100,0%</t>
   </si>
   <si>
-    <t>98,19%</t>
+    <t>99,72%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
+    <t>99,86%</t>
   </si>
   <si>
     <t>Sí</t>
@@ -98,39 +95,15 @@
     <t>0%</t>
   </si>
   <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
@@ -146,27 +119,15 @@
     <t>0,11%</t>
   </si>
   <si>
-    <t>&gt;50.000hab</t>
+    <t>&gt;50.000 hab</t>
   </si>
   <si>
     <t>99,7%</t>
   </si>
   <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
     <t>0,3%</t>
   </si>
   <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
     <t>Capitales</t>
   </si>
   <si>
@@ -200,28 +161,10 @@
     <t>Población según si en los últimos 12 meses han visitado un enfermero/a, matrona en 2012 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
   </si>
   <si>
     <t>99,8%</t>
@@ -239,637 +182,502 @@
     <t>Población según si en los últimos 12 meses han visitado un enfermero/a, matrona en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
-  </si>
-  <si>
-    <t>84,94%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>82,47%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>90,99%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>88,43%</t>
+  </si>
+  <si>
+    <t>86,06%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>89,85%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>92,63%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>85,75%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>87,67%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>90,07%</t>
+  </si>
+  <si>
+    <t>89,03%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>Población según si en los últimos 12 meses han visitado un enfermero/a, matrona en 2023 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>89,3%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
   </si>
   <si>
     <t>0,18%</t>
   </si>
   <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>88,43%</t>
-  </si>
-  <si>
-    <t>86,06%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>89,85%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>85,75%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
-  </si>
-  <si>
-    <t>87,67%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>90,07%</t>
-  </si>
-  <si>
-    <t>89,03%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>Población según si en los últimos 12 meses han visitado un enfermero/a, matrona en 2023 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
   </si>
   <si>
     <t>0,12%</t>
   </si>
   <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>90,62%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
     <t>0,07%</t>
   </si>
   <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>89,34%</t>
-  </si>
-  <si>
-    <t>87,3%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>89,26%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>89,42%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>89,72%</t>
+  </si>
+  <si>
+    <t>87,75%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>89,36%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
   </si>
   <si>
     <t>0,04%</t>
@@ -878,52 +686,58 @@
     <t>0,02%</t>
   </si>
   <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
   </si>
 </sst>
 </file>
@@ -1335,8 +1149,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75737C8E-D861-4593-8389-D494BE63A4BE}">
-  <dimension ref="A1:Q28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FC4135B-A466-43D4-A35D-66FAE0B0908B}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1453,10 +1267,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>105</v>
+        <v>683</v>
       </c>
       <c r="D4" s="7">
-        <v>115358</v>
+        <v>694012</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1468,31 +1282,31 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>128</v>
+        <v>696</v>
       </c>
       <c r="I4" s="7">
-        <v>112755</v>
+        <v>688351</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>233</v>
+        <v>1379</v>
       </c>
       <c r="N4" s="7">
-        <v>228113</v>
+        <v>1382363</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -1501,7 +1315,7 @@
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -1510,49 +1324,49 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5" s="7">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7">
-        <v>0</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
@@ -1561,43 +1375,43 @@
         <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="H6" s="7">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="M6" s="7">
+        <v>0</v>
+      </c>
+      <c r="N6" s="7">
+        <v>0</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7">
-        <v>0</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7">
-        <v>0</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1606,10 +1420,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>105</v>
+        <v>683</v>
       </c>
       <c r="D7" s="7">
-        <v>115358</v>
+        <v>694012</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>13</v>
@@ -1621,10 +1435,10 @@
         <v>13</v>
       </c>
       <c r="H7" s="7">
-        <v>128</v>
+        <v>696</v>
       </c>
       <c r="I7" s="7">
-        <v>112755</v>
+        <v>688351</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>13</v>
@@ -1636,10 +1450,10 @@
         <v>13</v>
       </c>
       <c r="M7" s="7">
-        <v>233</v>
+        <v>1379</v>
       </c>
       <c r="N7" s="7">
-        <v>228113</v>
+        <v>1382363</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>13</v>
@@ -1653,52 +1467,52 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>578</v>
+        <v>896</v>
       </c>
       <c r="D8" s="7">
-        <v>578654</v>
+        <v>961800</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H8" s="7">
-        <v>568</v>
+        <v>908</v>
       </c>
       <c r="I8" s="7">
-        <v>575596</v>
+        <v>968393</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M8" s="7">
-        <v>1146</v>
+        <v>1804</v>
       </c>
       <c r="N8" s="7">
-        <v>1154250</v>
+        <v>1930193</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>13</v>
@@ -1707,7 +1521,7 @@
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="7">
         <v>0</v>
@@ -1716,13 +1530,13 @@
         <v>0</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -1731,13 +1545,13 @@
         <v>0</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -1746,19 +1560,19 @@
         <v>0</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C10" s="7">
         <v>0</v>
@@ -1767,13 +1581,13 @@
         <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -1782,13 +1596,13 @@
         <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -1797,13 +1611,13 @@
         <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1812,10 +1626,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>578</v>
+        <v>896</v>
       </c>
       <c r="D11" s="7">
-        <v>578654</v>
+        <v>961800</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>13</v>
@@ -1827,10 +1641,10 @@
         <v>13</v>
       </c>
       <c r="H11" s="7">
-        <v>568</v>
+        <v>908</v>
       </c>
       <c r="I11" s="7">
-        <v>575596</v>
+        <v>968393</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>13</v>
@@ -1842,10 +1656,10 @@
         <v>13</v>
       </c>
       <c r="M11" s="7">
-        <v>1146</v>
+        <v>1804</v>
       </c>
       <c r="N11" s="7">
-        <v>1154250</v>
+        <v>1930193</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>13</v>
@@ -1859,52 +1673,52 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>896</v>
+        <v>641</v>
       </c>
       <c r="D12" s="7">
-        <v>961800</v>
+        <v>678509</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>908</v>
+        <v>696</v>
       </c>
       <c r="I12" s="7">
-        <v>968393</v>
+        <v>683841</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>1804</v>
+        <v>1337</v>
       </c>
       <c r="N12" s="7">
-        <v>1930193</v>
+        <v>1362350</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>13</v>
@@ -1913,7 +1727,7 @@
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" s="7">
         <v>0</v>
@@ -1922,29 +1736,29 @@
         <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="7">
+        <v>0</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H13" s="7">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7">
-        <v>0</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>33</v>
-      </c>
       <c r="M13" s="7">
         <v>0</v>
       </c>
@@ -1952,19 +1766,19 @@
         <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
@@ -1973,29 +1787,29 @@
         <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="7">
+        <v>0</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H14" s="7">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>33</v>
-      </c>
       <c r="M14" s="7">
         <v>0</v>
       </c>
@@ -2003,13 +1817,13 @@
         <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2018,10 +1832,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>896</v>
+        <v>641</v>
       </c>
       <c r="D15" s="7">
-        <v>961800</v>
+        <v>678509</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>13</v>
@@ -2033,10 +1847,10 @@
         <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>908</v>
+        <v>696</v>
       </c>
       <c r="I15" s="7">
-        <v>968393</v>
+        <v>683841</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>13</v>
@@ -2048,10 +1862,10 @@
         <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>1804</v>
+        <v>1337</v>
       </c>
       <c r="N15" s="7">
-        <v>1930193</v>
+        <v>1362350</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>13</v>
@@ -2065,52 +1879,52 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>641</v>
+        <v>994</v>
       </c>
       <c r="D16" s="7">
-        <v>678509</v>
+        <v>942222</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H16" s="7">
-        <v>696</v>
+        <v>997</v>
       </c>
       <c r="I16" s="7">
-        <v>683841</v>
+        <v>1038612</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M16" s="7">
-        <v>1337</v>
+        <v>1991</v>
       </c>
       <c r="N16" s="7">
-        <v>1362350</v>
+        <v>1980834</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>13</v>
@@ -2119,7 +1933,7 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" s="7">
         <v>0</v>
@@ -2128,13 +1942,13 @@
         <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -2143,13 +1957,13 @@
         <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -2158,19 +1972,19 @@
         <v>0</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C18" s="7">
         <v>0</v>
@@ -2179,13 +1993,13 @@
         <v>0</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -2194,13 +2008,13 @@
         <v>0</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -2209,13 +2023,13 @@
         <v>0</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2224,10 +2038,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>641</v>
+        <v>994</v>
       </c>
       <c r="D19" s="7">
-        <v>678509</v>
+        <v>942222</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>13</v>
@@ -2239,10 +2053,10 @@
         <v>13</v>
       </c>
       <c r="H19" s="7">
-        <v>696</v>
+        <v>997</v>
       </c>
       <c r="I19" s="7">
-        <v>683841</v>
+        <v>1038612</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>13</v>
@@ -2254,10 +2068,10 @@
         <v>13</v>
       </c>
       <c r="M19" s="7">
-        <v>1337</v>
+        <v>1991</v>
       </c>
       <c r="N19" s="7">
-        <v>1362350</v>
+        <v>1980834</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>13</v>
@@ -2271,52 +2085,52 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>994</v>
+        <v>3214</v>
       </c>
       <c r="D20" s="7">
-        <v>942222</v>
+        <v>3276543</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H20" s="7">
-        <v>997</v>
+        <v>3297</v>
       </c>
       <c r="I20" s="7">
-        <v>1038612</v>
+        <v>3379197</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M20" s="7">
-        <v>1991</v>
+        <v>6511</v>
       </c>
       <c r="N20" s="7">
-        <v>1980834</v>
+        <v>6655741</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>13</v>
@@ -2325,7 +2139,7 @@
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C21" s="7">
         <v>0</v>
@@ -2334,13 +2148,13 @@
         <v>0</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -2349,13 +2163,13 @@
         <v>0</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -2364,19 +2178,19 @@
         <v>0</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C22" s="7">
         <v>0</v>
@@ -2385,13 +2199,13 @@
         <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -2400,13 +2214,13 @@
         <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -2415,13 +2229,13 @@
         <v>0</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2430,10 +2244,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>994</v>
+        <v>3214</v>
       </c>
       <c r="D23" s="7">
-        <v>942222</v>
+        <v>3276543</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>13</v>
@@ -2445,10 +2259,10 @@
         <v>13</v>
       </c>
       <c r="H23" s="7">
-        <v>997</v>
+        <v>3297</v>
       </c>
       <c r="I23" s="7">
-        <v>1038612</v>
+        <v>3379197</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>13</v>
@@ -2460,10 +2274,10 @@
         <v>13</v>
       </c>
       <c r="M23" s="7">
-        <v>1991</v>
+        <v>6511</v>
       </c>
       <c r="N23" s="7">
-        <v>1980834</v>
+        <v>6655741</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>13</v>
@@ -2476,222 +2290,15 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>3214</v>
-      </c>
-      <c r="D24" s="7">
-        <v>3276544</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H24" s="7">
-        <v>3297</v>
-      </c>
-      <c r="I24" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M24" s="7">
-        <v>6511</v>
-      </c>
-      <c r="N24" s="7">
-        <v>6655740</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="7">
-        <v>0</v>
-      </c>
-      <c r="D25" s="7">
-        <v>0</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H25" s="7">
-        <v>0</v>
-      </c>
-      <c r="I25" s="7">
-        <v>0</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="M25" s="7">
-        <v>0</v>
-      </c>
-      <c r="N25" s="7">
-        <v>0</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" s="7">
-        <v>0</v>
-      </c>
-      <c r="D26" s="7">
-        <v>0</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H26" s="7">
-        <v>0</v>
-      </c>
-      <c r="I26" s="7">
-        <v>0</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="M26" s="7">
-        <v>0</v>
-      </c>
-      <c r="N26" s="7">
-        <v>0</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>3214</v>
-      </c>
-      <c r="D27" s="7">
-        <v>3276544</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H27" s="7">
-        <v>3297</v>
-      </c>
-      <c r="I27" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M27" s="7">
-        <v>6511</v>
-      </c>
-      <c r="N27" s="7">
-        <v>6655740</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>51</v>
+      <c r="A24" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2704,8 +2311,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{770AB95E-5360-477D-8614-6B7F20B4F5FC}">
-  <dimension ref="A1:Q28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23357702-F187-4E42-8901-91D6E825B6E4}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2721,7 +2328,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2822,46 +2429,46 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>122</v>
+        <v>674</v>
       </c>
       <c r="D4" s="7">
-        <v>115765</v>
+        <v>703469</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>99</v>
+        <v>650</v>
       </c>
       <c r="I4" s="7">
-        <v>111905</v>
+        <v>697050</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>221</v>
+        <v>1324</v>
       </c>
       <c r="N4" s="7">
-        <v>227670</v>
+        <v>1400519</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -2870,7 +2477,7 @@
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -2879,14 +2486,14 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>56</v>
-      </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
@@ -2894,13 +2501,13 @@
         <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -2909,19 +2516,19 @@
         <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
@@ -2930,14 +2537,14 @@
         <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="7" t="s">
-        <v>56</v>
-      </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
@@ -2945,13 +2552,13 @@
         <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -2960,13 +2567,13 @@
         <v>0</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2975,10 +2582,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>122</v>
+        <v>674</v>
       </c>
       <c r="D7" s="7">
-        <v>115765</v>
+        <v>703469</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>13</v>
@@ -2990,10 +2597,10 @@
         <v>13</v>
       </c>
       <c r="H7" s="7">
-        <v>99</v>
+        <v>650</v>
       </c>
       <c r="I7" s="7">
-        <v>111905</v>
+        <v>697050</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>13</v>
@@ -3005,10 +2612,10 @@
         <v>13</v>
       </c>
       <c r="M7" s="7">
-        <v>221</v>
+        <v>1324</v>
       </c>
       <c r="N7" s="7">
-        <v>227670</v>
+        <v>1400519</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>13</v>
@@ -3022,52 +2629,52 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>552</v>
+        <v>936</v>
       </c>
       <c r="D8" s="7">
-        <v>587704</v>
+        <v>1017947</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H8" s="7">
-        <v>551</v>
+        <v>940</v>
       </c>
       <c r="I8" s="7">
-        <v>585145</v>
+        <v>1032184</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M8" s="7">
-        <v>1103</v>
+        <v>1876</v>
       </c>
       <c r="N8" s="7">
-        <v>1172849</v>
+        <v>2050131</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>13</v>
@@ -3076,7 +2683,7 @@
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="7">
         <v>0</v>
@@ -3085,13 +2692,13 @@
         <v>0</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -3100,13 +2707,13 @@
         <v>0</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -3115,19 +2722,19 @@
         <v>0</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C10" s="7">
         <v>0</v>
@@ -3136,13 +2743,13 @@
         <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3151,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -3166,13 +2773,13 @@
         <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3181,10 +2788,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>552</v>
+        <v>936</v>
       </c>
       <c r="D11" s="7">
-        <v>587704</v>
+        <v>1017947</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>13</v>
@@ -3196,10 +2803,10 @@
         <v>13</v>
       </c>
       <c r="H11" s="7">
-        <v>551</v>
+        <v>940</v>
       </c>
       <c r="I11" s="7">
-        <v>585145</v>
+        <v>1032184</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>13</v>
@@ -3211,10 +2818,10 @@
         <v>13</v>
       </c>
       <c r="M11" s="7">
-        <v>1103</v>
+        <v>1876</v>
       </c>
       <c r="N11" s="7">
-        <v>1172849</v>
+        <v>2050131</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>13</v>
@@ -3228,52 +2835,52 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>936</v>
+        <v>689</v>
       </c>
       <c r="D12" s="7">
-        <v>1017947</v>
+        <v>757623</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>940</v>
+        <v>705</v>
       </c>
       <c r="I12" s="7">
-        <v>1032184</v>
+        <v>777174</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>1876</v>
+        <v>1394</v>
       </c>
       <c r="N12" s="7">
-        <v>2050131</v>
+        <v>1534797</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>13</v>
@@ -3282,7 +2889,7 @@
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" s="7">
         <v>0</v>
@@ -3291,14 +2898,14 @@
         <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>62</v>
-      </c>
       <c r="H13" s="7">
         <v>0</v>
       </c>
@@ -3306,13 +2913,13 @@
         <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -3321,19 +2928,19 @@
         <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
@@ -3342,14 +2949,14 @@
         <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>62</v>
-      </c>
       <c r="H14" s="7">
         <v>0</v>
       </c>
@@ -3357,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -3372,13 +2979,13 @@
         <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3387,10 +2994,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>936</v>
+        <v>689</v>
       </c>
       <c r="D15" s="7">
-        <v>1017947</v>
+        <v>757623</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>13</v>
@@ -3402,10 +3009,10 @@
         <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>940</v>
+        <v>705</v>
       </c>
       <c r="I15" s="7">
-        <v>1032184</v>
+        <v>777174</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>13</v>
@@ -3417,10 +3024,10 @@
         <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>1876</v>
+        <v>1394</v>
       </c>
       <c r="N15" s="7">
-        <v>2050131</v>
+        <v>1534797</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>13</v>
@@ -3434,52 +3041,52 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>689</v>
+        <v>910</v>
       </c>
       <c r="D16" s="7">
-        <v>757623</v>
+        <v>947739</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H16" s="7">
-        <v>705</v>
+        <v>1003</v>
       </c>
       <c r="I16" s="7">
-        <v>777174</v>
+        <v>1051901</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M16" s="7">
-        <v>1394</v>
+        <v>1913</v>
       </c>
       <c r="N16" s="7">
-        <v>1534797</v>
+        <v>1999640</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>13</v>
@@ -3488,7 +3095,7 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" s="7">
         <v>0</v>
@@ -3497,13 +3104,13 @@
         <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -3512,13 +3119,13 @@
         <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -3527,19 +3134,19 @@
         <v>0</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C18" s="7">
         <v>0</v>
@@ -3548,13 +3155,13 @@
         <v>0</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -3563,13 +3170,13 @@
         <v>0</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -3578,13 +3185,13 @@
         <v>0</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3593,10 +3200,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>689</v>
+        <v>910</v>
       </c>
       <c r="D19" s="7">
-        <v>757623</v>
+        <v>947739</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>13</v>
@@ -3608,10 +3215,10 @@
         <v>13</v>
       </c>
       <c r="H19" s="7">
-        <v>705</v>
+        <v>1003</v>
       </c>
       <c r="I19" s="7">
-        <v>777174</v>
+        <v>1051901</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>13</v>
@@ -3623,10 +3230,10 @@
         <v>13</v>
       </c>
       <c r="M19" s="7">
-        <v>1394</v>
+        <v>1913</v>
       </c>
       <c r="N19" s="7">
-        <v>1534797</v>
+        <v>1999640</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>13</v>
@@ -3640,52 +3247,52 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>910</v>
+        <v>3209</v>
       </c>
       <c r="D20" s="7">
-        <v>947739</v>
+        <v>3426779</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H20" s="7">
-        <v>1003</v>
+        <v>3298</v>
       </c>
       <c r="I20" s="7">
-        <v>1051901</v>
+        <v>3558309</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M20" s="7">
-        <v>1913</v>
+        <v>6507</v>
       </c>
       <c r="N20" s="7">
-        <v>1999640</v>
+        <v>6985088</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>13</v>
@@ -3694,7 +3301,7 @@
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C21" s="7">
         <v>0</v>
@@ -3703,13 +3310,13 @@
         <v>0</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -3718,13 +3325,13 @@
         <v>0</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -3733,19 +3340,19 @@
         <v>0</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C22" s="7">
         <v>0</v>
@@ -3754,13 +3361,13 @@
         <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -3769,13 +3376,13 @@
         <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -3784,13 +3391,13 @@
         <v>0</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3799,10 +3406,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>910</v>
+        <v>3209</v>
       </c>
       <c r="D23" s="7">
-        <v>947739</v>
+        <v>3426779</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>13</v>
@@ -3814,10 +3421,10 @@
         <v>13</v>
       </c>
       <c r="H23" s="7">
-        <v>1003</v>
+        <v>3298</v>
       </c>
       <c r="I23" s="7">
-        <v>1051901</v>
+        <v>3558309</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>13</v>
@@ -3829,10 +3436,10 @@
         <v>13</v>
       </c>
       <c r="M23" s="7">
-        <v>1913</v>
+        <v>6507</v>
       </c>
       <c r="N23" s="7">
-        <v>1999640</v>
+        <v>6985088</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>13</v>
@@ -3845,222 +3452,15 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>3209</v>
-      </c>
-      <c r="D24" s="7">
-        <v>3426779</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H24" s="7">
-        <v>3298</v>
-      </c>
-      <c r="I24" s="7">
-        <v>3558309</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M24" s="7">
-        <v>6507</v>
-      </c>
-      <c r="N24" s="7">
-        <v>6985088</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="7">
-        <v>0</v>
-      </c>
-      <c r="D25" s="7">
-        <v>0</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H25" s="7">
-        <v>0</v>
-      </c>
-      <c r="I25" s="7">
-        <v>0</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="M25" s="7">
-        <v>0</v>
-      </c>
-      <c r="N25" s="7">
-        <v>0</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" s="7">
-        <v>0</v>
-      </c>
-      <c r="D26" s="7">
-        <v>0</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H26" s="7">
-        <v>0</v>
-      </c>
-      <c r="I26" s="7">
-        <v>0</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="M26" s="7">
-        <v>0</v>
-      </c>
-      <c r="N26" s="7">
-        <v>0</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>3209</v>
-      </c>
-      <c r="D27" s="7">
-        <v>3426779</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H27" s="7">
-        <v>3298</v>
-      </c>
-      <c r="I27" s="7">
-        <v>3558309</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M27" s="7">
-        <v>6507</v>
-      </c>
-      <c r="N27" s="7">
-        <v>6985088</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>51</v>
+      <c r="A24" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4073,8 +3473,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67CECCD4-42FC-45B8-8386-85DF0769F8DF}">
-  <dimension ref="A1:Q28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CA26AB0-75E8-4394-9940-CA2353C4F04B}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4090,7 +3490,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4197,13 +3597,13 @@
         <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4212,13 +3612,13 @@
         <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4227,115 +3627,115 @@
         <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="7">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="D5" s="7">
-        <v>9259</v>
+        <v>30408</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="H5" s="7">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="I5" s="7">
-        <v>11452</v>
+        <v>44330</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="M5" s="7">
         <v>73</v>
       </c>
-      <c r="L5" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="M5" s="7">
-        <v>19</v>
-      </c>
       <c r="N5" s="7">
-        <v>20712</v>
+        <v>74738</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C6" s="7">
-        <v>105</v>
+        <v>623</v>
       </c>
       <c r="D6" s="7">
-        <v>107287</v>
+        <v>644392</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="H6" s="7">
-        <v>104</v>
+        <v>622</v>
       </c>
       <c r="I6" s="7">
-        <v>101908</v>
+        <v>628509</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="M6" s="7">
-        <v>209</v>
+        <v>1245</v>
       </c>
       <c r="N6" s="7">
-        <v>209194</v>
+        <v>1272901</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4344,10 +3744,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>113</v>
+        <v>652</v>
       </c>
       <c r="D7" s="7">
-        <v>116546</v>
+        <v>674800</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>13</v>
@@ -4359,10 +3759,10 @@
         <v>13</v>
       </c>
       <c r="H7" s="7">
-        <v>115</v>
+        <v>666</v>
       </c>
       <c r="I7" s="7">
-        <v>113360</v>
+        <v>672839</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>13</v>
@@ -4374,10 +3774,10 @@
         <v>13</v>
       </c>
       <c r="M7" s="7">
-        <v>228</v>
+        <v>1318</v>
       </c>
       <c r="N7" s="7">
-        <v>229906</v>
+        <v>1347639</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>13</v>
@@ -4391,7 +3791,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -4403,13 +3803,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>87</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4418,13 +3818,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4433,115 +3833,115 @@
         <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>88</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="7">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="D9" s="7">
-        <v>21149</v>
+        <v>58057</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="H9" s="7">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="I9" s="7">
-        <v>32877</v>
+        <v>90859</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="M9" s="7">
-        <v>54</v>
+        <v>139</v>
       </c>
       <c r="N9" s="7">
-        <v>54026</v>
+        <v>148916</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C10" s="7">
-        <v>518</v>
+        <v>895</v>
       </c>
       <c r="D10" s="7">
-        <v>537105</v>
+        <v>964374</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="H10" s="7">
-        <v>518</v>
+        <v>894</v>
       </c>
       <c r="I10" s="7">
-        <v>526602</v>
+        <v>952054</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="M10" s="7">
-        <v>1036</v>
+        <v>1789</v>
       </c>
       <c r="N10" s="7">
-        <v>1063707</v>
+        <v>1916428</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4550,10 +3950,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>539</v>
+        <v>951</v>
       </c>
       <c r="D11" s="7">
-        <v>558254</v>
+        <v>1022431</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>13</v>
@@ -4565,10 +3965,10 @@
         <v>13</v>
       </c>
       <c r="H11" s="7">
-        <v>551</v>
+        <v>977</v>
       </c>
       <c r="I11" s="7">
-        <v>559479</v>
+        <v>1042913</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>13</v>
@@ -4580,10 +3980,10 @@
         <v>13</v>
       </c>
       <c r="M11" s="7">
-        <v>1090</v>
+        <v>1928</v>
       </c>
       <c r="N11" s="7">
-        <v>1117733</v>
+        <v>2065344</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>13</v>
@@ -4597,7 +3997,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -4609,14 +4009,14 @@
         <v>0</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="7" t="s">
-        <v>62</v>
-      </c>
       <c r="H12" s="7">
         <v>0</v>
       </c>
@@ -4624,13 +4024,13 @@
         <v>0</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -4639,115 +4039,115 @@
         <v>0</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>46</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" s="7">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="D13" s="7">
-        <v>58057</v>
+        <v>40088</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="H13" s="7">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I13" s="7">
-        <v>90859</v>
+        <v>90834</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="M13" s="7">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="N13" s="7">
-        <v>148916</v>
+        <v>130922</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>895</v>
+        <v>659</v>
       </c>
       <c r="D14" s="7">
-        <v>964374</v>
+        <v>719464</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="H14" s="7">
-        <v>894</v>
+        <v>652</v>
       </c>
       <c r="I14" s="7">
-        <v>952054</v>
+        <v>694177</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="M14" s="7">
-        <v>1789</v>
+        <v>1311</v>
       </c>
       <c r="N14" s="7">
-        <v>1916428</v>
+        <v>1413641</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4756,10 +4156,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>951</v>
+        <v>696</v>
       </c>
       <c r="D15" s="7">
-        <v>1022431</v>
+        <v>759552</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>13</v>
@@ -4771,10 +4171,10 @@
         <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>977</v>
+        <v>736</v>
       </c>
       <c r="I15" s="7">
-        <v>1042913</v>
+        <v>785011</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>13</v>
@@ -4786,10 +4186,10 @@
         <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>1928</v>
+        <v>1432</v>
       </c>
       <c r="N15" s="7">
-        <v>2065344</v>
+        <v>1544563</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>13</v>
@@ -4803,7 +4203,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4815,13 +4215,13 @@
         <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4830,13 +4230,13 @@
         <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>125</v>
+        <v>43</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4845,115 +4245,115 @@
         <v>0</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>126</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" s="7">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="D17" s="7">
-        <v>40088</v>
+        <v>85137</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="H17" s="7">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="I17" s="7">
-        <v>90834</v>
+        <v>125886</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="M17" s="7">
-        <v>121</v>
+        <v>191</v>
       </c>
       <c r="N17" s="7">
-        <v>130922</v>
+        <v>211023</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C18" s="7">
-        <v>659</v>
+        <v>847</v>
       </c>
       <c r="D18" s="7">
-        <v>719464</v>
+        <v>852430</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="H18" s="7">
-        <v>652</v>
+        <v>853</v>
       </c>
       <c r="I18" s="7">
-        <v>694177</v>
+        <v>917893</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
       <c r="M18" s="7">
-        <v>1311</v>
+        <v>1700</v>
       </c>
       <c r="N18" s="7">
-        <v>1413641</v>
+        <v>1770323</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>142</v>
+        <v>119</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>144</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4962,10 +4362,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>696</v>
+        <v>932</v>
       </c>
       <c r="D19" s="7">
-        <v>759552</v>
+        <v>937567</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>13</v>
@@ -4977,10 +4377,10 @@
         <v>13</v>
       </c>
       <c r="H19" s="7">
-        <v>736</v>
+        <v>959</v>
       </c>
       <c r="I19" s="7">
-        <v>785011</v>
+        <v>1043779</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>13</v>
@@ -4992,10 +4392,10 @@
         <v>13</v>
       </c>
       <c r="M19" s="7">
-        <v>1432</v>
+        <v>1891</v>
       </c>
       <c r="N19" s="7">
-        <v>1544563</v>
+        <v>1981346</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>13</v>
@@ -5009,7 +4409,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5021,13 +4421,13 @@
         <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5036,13 +4436,13 @@
         <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5051,115 +4451,115 @@
         <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C21" s="7">
-        <v>85</v>
+        <v>207</v>
       </c>
       <c r="D21" s="7">
-        <v>85137</v>
+        <v>213690</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c r="H21" s="7">
-        <v>106</v>
+        <v>317</v>
       </c>
       <c r="I21" s="7">
-        <v>125886</v>
+        <v>351909</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="M21" s="7">
-        <v>191</v>
+        <v>524</v>
       </c>
       <c r="N21" s="7">
-        <v>211023</v>
+        <v>565599</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C22" s="7">
-        <v>847</v>
+        <v>3024</v>
       </c>
       <c r="D22" s="7">
-        <v>852430</v>
+        <v>3180660</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="H22" s="7">
-        <v>853</v>
+        <v>3021</v>
       </c>
       <c r="I22" s="7">
-        <v>917893</v>
+        <v>3192633</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="M22" s="7">
-        <v>1700</v>
+        <v>6045</v>
       </c>
       <c r="N22" s="7">
-        <v>1770323</v>
+        <v>6373293</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5168,10 +4568,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>932</v>
+        <v>3231</v>
       </c>
       <c r="D23" s="7">
-        <v>937567</v>
+        <v>3394350</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>13</v>
@@ -5183,10 +4583,10 @@
         <v>13</v>
       </c>
       <c r="H23" s="7">
-        <v>959</v>
+        <v>3338</v>
       </c>
       <c r="I23" s="7">
-        <v>1043779</v>
+        <v>3544542</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>13</v>
@@ -5198,10 +4598,10 @@
         <v>13</v>
       </c>
       <c r="M23" s="7">
-        <v>1891</v>
+        <v>6569</v>
       </c>
       <c r="N23" s="7">
-        <v>1981346</v>
+        <v>6938892</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>13</v>
@@ -5214,222 +4614,15 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>0</v>
-      </c>
-      <c r="D24" s="7">
-        <v>0</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H24" s="7">
-        <v>0</v>
-      </c>
-      <c r="I24" s="7">
-        <v>0</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="M24" s="7">
-        <v>0</v>
-      </c>
-      <c r="N24" s="7">
-        <v>0</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="7">
-        <v>207</v>
-      </c>
-      <c r="D25" s="7">
-        <v>213690</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="H25" s="7">
-        <v>317</v>
-      </c>
-      <c r="I25" s="7">
-        <v>351909</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="M25" s="7">
-        <v>524</v>
-      </c>
-      <c r="N25" s="7">
-        <v>565599</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" s="7">
-        <v>3024</v>
-      </c>
-      <c r="D26" s="7">
-        <v>3180660</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="H26" s="7">
-        <v>3021</v>
-      </c>
-      <c r="I26" s="7">
-        <v>3192633</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="M26" s="7">
-        <v>6045</v>
-      </c>
-      <c r="N26" s="7">
-        <v>6373293</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>3231</v>
-      </c>
-      <c r="D27" s="7">
-        <v>3394350</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H27" s="7">
-        <v>3338</v>
-      </c>
-      <c r="I27" s="7">
-        <v>3544542</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M27" s="7">
-        <v>6569</v>
-      </c>
-      <c r="N27" s="7">
-        <v>6938892</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>51</v>
+      <c r="A24" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5442,8 +4635,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22A1FE56-821F-4DCA-8067-F8FA5B2AE45B}">
-  <dimension ref="A1:Q28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82F907E8-0095-41C1-B9C9-F0E95CB9A84A}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5459,7 +4652,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>181</v>
+        <v>140</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5566,13 +4759,13 @@
         <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>182</v>
+        <v>84</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -5581,13 +4774,13 @@
         <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>183</v>
+        <v>47</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -5596,115 +4789,115 @@
         <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>184</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="7">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D5" s="7">
-        <v>4873</v>
+        <v>22268</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>185</v>
+        <v>141</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>186</v>
+        <v>142</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>187</v>
+        <v>143</v>
       </c>
       <c r="H5" s="7">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="I5" s="7">
-        <v>10171</v>
+        <v>42480</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>188</v>
+        <v>144</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>189</v>
+        <v>145</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>77</v>
+        <v>146</v>
       </c>
       <c r="M5" s="7">
-        <v>24</v>
+        <v>87</v>
       </c>
       <c r="N5" s="7">
-        <v>15044</v>
+        <v>64748</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>190</v>
+        <v>147</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>191</v>
+        <v>148</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>192</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C6" s="7">
-        <v>111</v>
+        <v>708</v>
       </c>
       <c r="D6" s="7">
-        <v>97109</v>
+        <v>613173</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>193</v>
+        <v>150</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>194</v>
+        <v>151</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>195</v>
+        <v>152</v>
       </c>
       <c r="H6" s="7">
-        <v>226</v>
+        <v>1173</v>
       </c>
       <c r="I6" s="7">
-        <v>120562</v>
+        <v>632770</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>196</v>
+        <v>153</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>85</v>
+        <v>154</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>197</v>
+        <v>155</v>
       </c>
       <c r="M6" s="7">
-        <v>337</v>
+        <v>1881</v>
       </c>
       <c r="N6" s="7">
-        <v>217671</v>
+        <v>1245943</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>198</v>
+        <v>156</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>199</v>
+        <v>157</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>200</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5713,10 +4906,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>118</v>
+        <v>730</v>
       </c>
       <c r="D7" s="7">
-        <v>101982</v>
+        <v>635441</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>13</v>
@@ -5728,10 +4921,10 @@
         <v>13</v>
       </c>
       <c r="H7" s="7">
-        <v>243</v>
+        <v>1238</v>
       </c>
       <c r="I7" s="7">
-        <v>130733</v>
+        <v>675250</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>13</v>
@@ -5743,10 +4936,10 @@
         <v>13</v>
       </c>
       <c r="M7" s="7">
-        <v>361</v>
+        <v>1968</v>
       </c>
       <c r="N7" s="7">
-        <v>232715</v>
+        <v>1310691</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>13</v>
@@ -5760,7 +4953,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -5772,13 +4965,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>201</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -5787,13 +4980,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -5802,115 +4995,115 @@
         <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>202</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="7">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="D9" s="7">
-        <v>18370</v>
+        <v>71399</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>203</v>
+        <v>160</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>204</v>
+        <v>161</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>205</v>
+        <v>162</v>
       </c>
       <c r="H9" s="7">
-        <v>48</v>
+        <v>123</v>
       </c>
       <c r="I9" s="7">
-        <v>35367</v>
+        <v>83205</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>206</v>
+        <v>163</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>207</v>
+        <v>88</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>208</v>
+        <v>164</v>
       </c>
       <c r="M9" s="7">
-        <v>63</v>
+        <v>189</v>
       </c>
       <c r="N9" s="7">
-        <v>53737</v>
+        <v>154604</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>209</v>
+        <v>165</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>210</v>
+        <v>166</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>211</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C10" s="7">
-        <v>597</v>
+        <v>898</v>
       </c>
       <c r="D10" s="7">
-        <v>531453</v>
+        <v>1121465</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>212</v>
+        <v>167</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>213</v>
+        <v>168</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>214</v>
+        <v>169</v>
       </c>
       <c r="H10" s="7">
-        <v>947</v>
+        <v>1393</v>
       </c>
       <c r="I10" s="7">
-        <v>557052</v>
+        <v>874901</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>215</v>
+        <v>170</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>216</v>
+        <v>171</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>217</v>
+        <v>96</v>
       </c>
       <c r="M10" s="7">
-        <v>1544</v>
+        <v>2291</v>
       </c>
       <c r="N10" s="7">
-        <v>1088505</v>
+        <v>1996367</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>218</v>
+        <v>172</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>219</v>
+        <v>78</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>220</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5919,10 +5112,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>612</v>
+        <v>964</v>
       </c>
       <c r="D11" s="7">
-        <v>549823</v>
+        <v>1192864</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>13</v>
@@ -5934,10 +5127,10 @@
         <v>13</v>
       </c>
       <c r="H11" s="7">
-        <v>995</v>
+        <v>1516</v>
       </c>
       <c r="I11" s="7">
-        <v>592419</v>
+        <v>958106</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>13</v>
@@ -5949,10 +5142,10 @@
         <v>13</v>
       </c>
       <c r="M11" s="7">
-        <v>1607</v>
+        <v>2480</v>
       </c>
       <c r="N11" s="7">
-        <v>1142242</v>
+        <v>2150971</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>13</v>
@@ -5966,7 +5159,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -5978,14 +5171,14 @@
         <v>0</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="7" t="s">
-        <v>62</v>
-      </c>
       <c r="H12" s="7">
         <v>0</v>
       </c>
@@ -5993,13 +5186,13 @@
         <v>0</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>126</v>
+        <v>174</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -6008,115 +5201,115 @@
         <v>0</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>221</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" s="7">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="D13" s="7">
-        <v>76027</v>
+        <v>19887</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>222</v>
+        <v>175</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>223</v>
+        <v>176</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>224</v>
+        <v>177</v>
       </c>
       <c r="H13" s="7">
-        <v>123</v>
+        <v>64</v>
       </c>
       <c r="I13" s="7">
-        <v>91432</v>
+        <v>38588</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>225</v>
+        <v>178</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>226</v>
+        <v>179</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>227</v>
+        <v>180</v>
       </c>
       <c r="M13" s="7">
-        <v>189</v>
+        <v>91</v>
       </c>
       <c r="N13" s="7">
-        <v>167459</v>
+        <v>58475</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>228</v>
+        <v>181</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>229</v>
+        <v>182</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>230</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>898</v>
+        <v>649</v>
       </c>
       <c r="D14" s="7">
-        <v>963221</v>
+        <v>684793</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>231</v>
+        <v>184</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>232</v>
+        <v>185</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>233</v>
+        <v>186</v>
       </c>
       <c r="H14" s="7">
-        <v>1393</v>
+        <v>979</v>
       </c>
       <c r="I14" s="7">
-        <v>968042</v>
+        <v>891660</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>234</v>
+        <v>187</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>235</v>
+        <v>188</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>236</v>
+        <v>189</v>
       </c>
       <c r="M14" s="7">
-        <v>2291</v>
+        <v>1628</v>
       </c>
       <c r="N14" s="7">
-        <v>1931263</v>
+        <v>1576453</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>237</v>
+        <v>190</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>238</v>
+        <v>191</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>239</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6125,10 +5318,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>964</v>
+        <v>676</v>
       </c>
       <c r="D15" s="7">
-        <v>1039248</v>
+        <v>704680</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>13</v>
@@ -6140,10 +5333,10 @@
         <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>1516</v>
+        <v>1043</v>
       </c>
       <c r="I15" s="7">
-        <v>1059474</v>
+        <v>930248</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>13</v>
@@ -6155,10 +5348,10 @@
         <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>2480</v>
+        <v>1719</v>
       </c>
       <c r="N15" s="7">
-        <v>2098722</v>
+        <v>1634928</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>13</v>
@@ -6172,7 +5365,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6184,13 +5377,13 @@
         <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -6199,13 +5392,13 @@
         <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>88</v>
+        <v>193</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -6214,115 +5407,115 @@
         <v>0</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>34</v>
+        <v>194</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" s="7">
-        <v>27</v>
+        <v>93</v>
       </c>
       <c r="D17" s="7">
-        <v>21227</v>
+        <v>77281</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>240</v>
+        <v>195</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>241</v>
+        <v>196</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>242</v>
+        <v>197</v>
       </c>
       <c r="H17" s="7">
-        <v>64</v>
+        <v>187</v>
       </c>
       <c r="I17" s="7">
-        <v>42887</v>
+        <v>112455</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>243</v>
+        <v>198</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>244</v>
+        <v>199</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>245</v>
+        <v>200</v>
       </c>
       <c r="M17" s="7">
-        <v>91</v>
+        <v>280</v>
       </c>
       <c r="N17" s="7">
-        <v>64114</v>
+        <v>189736</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>246</v>
+        <v>201</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>247</v>
+        <v>202</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>248</v>
+        <v>203</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C18" s="7">
-        <v>649</v>
+        <v>913</v>
       </c>
       <c r="D18" s="7">
-        <v>707545</v>
+        <v>849550</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>249</v>
+        <v>204</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>250</v>
+        <v>205</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>251</v>
+        <v>206</v>
       </c>
       <c r="H18" s="7">
-        <v>979</v>
+        <v>1374</v>
       </c>
       <c r="I18" s="7">
-        <v>827838</v>
+        <v>981799</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>252</v>
+        <v>207</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>253</v>
+        <v>208</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>254</v>
+        <v>209</v>
       </c>
       <c r="M18" s="7">
-        <v>1628</v>
+        <v>2287</v>
       </c>
       <c r="N18" s="7">
-        <v>1535383</v>
+        <v>1831349</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>255</v>
+        <v>210</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>256</v>
+        <v>211</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>257</v>
+        <v>212</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6331,10 +5524,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>676</v>
+        <v>1006</v>
       </c>
       <c r="D19" s="7">
-        <v>728772</v>
+        <v>926831</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>13</v>
@@ -6346,10 +5539,10 @@
         <v>13</v>
       </c>
       <c r="H19" s="7">
-        <v>1043</v>
+        <v>1561</v>
       </c>
       <c r="I19" s="7">
-        <v>870725</v>
+        <v>1094254</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>13</v>
@@ -6361,10 +5554,10 @@
         <v>13</v>
       </c>
       <c r="M19" s="7">
-        <v>1719</v>
+        <v>2567</v>
       </c>
       <c r="N19" s="7">
-        <v>1599497</v>
+        <v>2021085</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>13</v>
@@ -6378,7 +5571,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -6390,13 +5583,13 @@
         <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -6405,13 +5598,13 @@
         <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -6420,115 +5613,115 @@
         <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>258</v>
+        <v>214</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C21" s="7">
-        <v>93</v>
+        <v>208</v>
       </c>
       <c r="D21" s="7">
-        <v>79753</v>
+        <v>190834</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>259</v>
+        <v>215</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>260</v>
+        <v>216</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>261</v>
+        <v>217</v>
       </c>
       <c r="H21" s="7">
-        <v>187</v>
+        <v>439</v>
       </c>
       <c r="I21" s="7">
-        <v>122592</v>
+        <v>276729</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>262</v>
+        <v>218</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>263</v>
+        <v>219</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>264</v>
+        <v>220</v>
       </c>
       <c r="M21" s="7">
-        <v>280</v>
+        <v>647</v>
       </c>
       <c r="N21" s="7">
-        <v>202345</v>
+        <v>467563</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>265</v>
+        <v>221</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>266</v>
+        <v>222</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>267</v>
+        <v>223</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C22" s="7">
-        <v>913</v>
+        <v>3168</v>
       </c>
       <c r="D22" s="7">
-        <v>885650</v>
+        <v>3268983</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>268</v>
+        <v>224</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>269</v>
+        <v>225</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>270</v>
+        <v>226</v>
       </c>
       <c r="H22" s="7">
-        <v>1374</v>
+        <v>4919</v>
       </c>
       <c r="I22" s="7">
-        <v>1027114</v>
+        <v>3381129</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>271</v>
+        <v>227</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>272</v>
+        <v>228</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>273</v>
+        <v>229</v>
       </c>
       <c r="M22" s="7">
-        <v>2287</v>
+        <v>8087</v>
       </c>
       <c r="N22" s="7">
-        <v>1912764</v>
+        <v>6650112</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>274</v>
+        <v>230</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>275</v>
+        <v>231</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>276</v>
+        <v>232</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6537,10 +5730,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>1006</v>
+        <v>3376</v>
       </c>
       <c r="D23" s="7">
-        <v>965403</v>
+        <v>3459817</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>13</v>
@@ -6552,10 +5745,10 @@
         <v>13</v>
       </c>
       <c r="H23" s="7">
-        <v>1561</v>
+        <v>5358</v>
       </c>
       <c r="I23" s="7">
-        <v>1149706</v>
+        <v>3657858</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>13</v>
@@ -6567,10 +5760,10 @@
         <v>13</v>
       </c>
       <c r="M23" s="7">
-        <v>2567</v>
+        <v>8734</v>
       </c>
       <c r="N23" s="7">
-        <v>2115109</v>
+        <v>7117675</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>13</v>
@@ -6583,222 +5776,15 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>0</v>
-      </c>
-      <c r="D24" s="7">
-        <v>0</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H24" s="7">
-        <v>0</v>
-      </c>
-      <c r="I24" s="7">
-        <v>0</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="M24" s="7">
-        <v>0</v>
-      </c>
-      <c r="N24" s="7">
-        <v>0</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="7">
-        <v>208</v>
-      </c>
-      <c r="D25" s="7">
-        <v>200249</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="H25" s="7">
-        <v>439</v>
-      </c>
-      <c r="I25" s="7">
-        <v>302449</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="M25" s="7">
-        <v>647</v>
-      </c>
-      <c r="N25" s="7">
-        <v>502698</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" s="7">
-        <v>3168</v>
-      </c>
-      <c r="D26" s="7">
-        <v>3184979</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="H26" s="7">
-        <v>4919</v>
-      </c>
-      <c r="I26" s="7">
-        <v>3500608</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="M26" s="7">
-        <v>8087</v>
-      </c>
-      <c r="N26" s="7">
-        <v>6685587</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>3376</v>
-      </c>
-      <c r="D27" s="7">
-        <v>3385228</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H27" s="7">
-        <v>5358</v>
-      </c>
-      <c r="I27" s="7">
-        <v>3803057</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M27" s="7">
-        <v>8734</v>
-      </c>
-      <c r="N27" s="7">
-        <v>7188285</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>51</v>
+      <c r="A24" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
